--- a/detailed_channel_info/KCNJ16_RAT.xlsx
+++ b/detailed_channel_info/KCNJ16_RAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>CURATOR:</t>
   </si>
   <si>
-    <t>vahidgh</t>
-  </si>
-  <si>
     <t>REFERENCES:</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>https://chopen.herokuapp.com/api/graph_data/125?format=json</t>
+  </si>
+  <si>
+    <t>vahidgh, gopal_sarma</t>
   </si>
 </sst>
 </file>
@@ -564,19 +564,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="45.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="45.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -584,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -595,36 +597,36 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="256" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -632,7 +634,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -643,12 +645,12 @@
         <v>10764726</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -656,23 +658,23 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="336" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -680,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -688,7 +690,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -696,31 +698,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -778,7 +780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="224" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="176" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
@@ -810,32 +812,32 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
